--- a/flows/USOI_fund_flow_data.xlsx
+++ b/flows/USOI_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1726"/>
+  <dimension ref="A1:B1738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17695,6 +17695,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1738" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
